--- a/projects/va_emerging_tech/analyze_inputs/fuel_emissions.xlsx
+++ b/projects/va_emerging_tech/analyze_inputs/fuel_emissions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benne\PycharmProjects\coopercenter_temoatools\projects\va_emerging_tech\analyze_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CA6923-960E-4B72-8668-F2945D015C89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F33C7E6-BCD2-4271-BF94-6D916A252C94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Fuel</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t>Sources:</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Natural Gas - DAC</t>
+  </si>
+  <si>
+    <t>Direct Air Capture</t>
   </si>
 </sst>
 </file>
@@ -403,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
@@ -497,30 +506,73 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
-        <v>-98</v>
+        <v>-90</v>
       </c>
       <c r="C5" s="1">
-        <v>53.07</v>
+        <v>93.3</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5">
         <f>C5*0.000001/0.00000105505585262</f>
-        <v>50.300654575027743</v>
+        <v>88.431337325232491</v>
       </c>
       <c r="F5">
         <f>E5*B5/100</f>
+        <v>-79.588203592709249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-98</v>
+      </c>
+      <c r="C6" s="1">
+        <v>53.07</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6">
+        <f>C6*0.000001/0.00000105505585262</f>
+        <v>50.300654575027743</v>
+      </c>
+      <c r="F6">
+        <f>E6*B6/100</f>
         <v>-49.294641483527187</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-98</v>
+      </c>
+      <c r="C7" s="1">
+        <v>53.07</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7">
+        <f>C7*0.000001/0.00000105505585262</f>
+        <v>50.300654575027743</v>
+      </c>
+      <c r="F7">
+        <f>E7*B7/100</f>
+        <v>-49.294641483527187</v>
+      </c>
+      <c r="H7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
